--- a/manuális_tesztesetek/Vizsgareme_POM_manuális_teszesetek.xlsx
+++ b/manuális_tesztesetek/Vizsgareme_POM_manuális_teszesetek.xlsx
@@ -1261,8 +1261,8 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
